--- a/biology/Botanique/Fuchsia_fulgens/Fuchsia_fulgens.xlsx
+++ b/biology/Botanique/Fuchsia_fulgens/Fuchsia_fulgens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia fulgens[1] est une plante du genre Fuchsia de la famille des Onagraceae.
-Son aire de répartition naturelle est la partie centrale et le sud-ouest du Mexique. C'est un épiphyte qui est présent  principalement dans le biome tropical saisonnier sec[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia fulgens est une plante du genre Fuchsia de la famille des Onagraceae.
+Son aire de répartition naturelle est la partie centrale et le sud-ouest du Mexique. C'est un épiphyte qui est présent  principalement dans le biome tropical saisonnier sec.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia fulgens a une croissance arbustive dressée et possède des racines tubéreuses épaissies[3].
-Il atteint des hauteurs de 1,5 m ou plus. Sa largeur allant jusqu'à 80 cm[4]. Les tiges sont ligneuses et les feuilles sont opposées et ovales ou en forme de coeur. Elles sont pâles ou vert plus pâle ou rouge vif en dessous. Leur longueur varie de 9 à 23 cm, avec de fines dents rouges[4],[3] avec des glandes aux extrémités. Les fleurs sont simples, courtes, terminales, en forme de tubes et disposées en grappes[4],[3] en pendant. La couleur de ces tubes va du rose au rouge terne ou à l'écarlate[3]. Les sépales sont rouge pâle ou jaune pâle à la base, et teintées de jaune-vert sur les marges[4],[3].
-La corolle est de couleur rouge vif[3]. Les fruits sont de forme oblongue à ellipsoïde et de couleur violet foncé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia fulgens a une croissance arbustive dressée et possède des racines tubéreuses épaissies.
+Il atteint des hauteurs de 1,5 m ou plus. Sa largeur allant jusqu'à 80 cm. Les tiges sont ligneuses et les feuilles sont opposées et ovales ou en forme de coeur. Elles sont pâles ou vert plus pâle ou rouge vif en dessous. Leur longueur varie de 9 à 23 cm, avec de fines dents rouges, avec des glandes aux extrémités. Les fleurs sont simples, courtes, terminales, en forme de tubes et disposées en grappes, en pendant. La couleur de ces tubes va du rose au rouge terne ou à l'écarlate. Les sépales sont rouge pâle ou jaune pâle à la base, et teintées de jaune-vert sur les marges,.
+La corolle est de couleur rouge vif. Les fruits sont de forme oblongue à ellipsoïde et de couleur violet foncé.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « Fuchsia » vient de Leonhart Fuchs (1501-1566), botaniste de la Renaissance et professeur à Tübingen. « fulgens » signifie « brillant » ou « scintillant », en référence aux fleurs rouges[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « Fuchsia » vient de Leonhart Fuchs (1501-1566), botaniste de la Renaissance et professeur à Tübingen. « fulgens » signifie « brillant » ou « scintillant », en référence aux fleurs rouges.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes Homotypiques
 Spachia fulgens (Moc. &amp; Sessé ex DC.) Lilja in Tidn. Trädgardsskötsel Allmän Wextkult. 1: 62 (1840)
